--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>419848.8806507782</v>
+        <v>433844.542904243</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8016964.391941445</v>
+        <v>8067469.446089136</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>366.7583221896721</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.987947423163</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>83.05191574142785</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>67.46538592382007</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,22 +896,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>50.79226062610575</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>305.9516572177111</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>85.54283431715166</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>362.6925449676659</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>345.4056667988684</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1184,19 +1184,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.61290686391449</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>161.8384861377972</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>206.4855017772231</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>13.5144690908971</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>206.4855017772231</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>206.8981232563554</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>18.05677735225723</v>
+        <v>50.30825486907156</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.4380635245681</v>
+        <v>154.0254420454387</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>136.6047512078537</v>
+        <v>136.1921297287224</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>126.76417856723</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>18.05677735225751</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225831</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>136.0564930767003</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>61.23284287475836</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>46.45303019605566</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>180.8611112561202</v>
       </c>
     </row>
     <row r="38">
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>134.9254647561316</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3724,10 +3724,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>103.3456594571962</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>217.2376502602741</v>
       </c>
     </row>
     <row r="44">
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>103.3456594571958</v>
+        <v>239.7909713904972</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1200.821019354836</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>762.6785465382591</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>392.2155948315196</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>362.4812540302188</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798306</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304683</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311667</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.71137679769</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756285</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>2050.508772920375</v>
       </c>
       <c r="X2" t="n">
-        <v>435.3194362350473</v>
+        <v>1631.366309499686</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>1627.120589839743</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397437</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>813.7361418590956</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>641.1744303423205</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>475.2964375438432</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>391.405613562603</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>214.6985595243592</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213224</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>742.0756208892834</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2063.487540453623</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.994434423965</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509342</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214714</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.70503751271</v>
       </c>
       <c r="T4" t="n">
-        <v>1629.036575611912</v>
+        <v>2028.825591091165</v>
       </c>
       <c r="U4" t="n">
-        <v>1350.603574865018</v>
+        <v>1750.392590344271</v>
       </c>
       <c r="V4" t="n">
-        <v>1063.648066735448</v>
+        <v>1750.392590344271</v>
       </c>
       <c r="W4" t="n">
-        <v>791.6216623217397</v>
+        <v>1478.366185930562</v>
       </c>
       <c r="X4" t="n">
-        <v>791.6216623217397</v>
+        <v>1232.974431263975</v>
       </c>
       <c r="Y4" t="n">
-        <v>564.2019916358479</v>
+        <v>1005.554760578083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>552.7406073489124</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C5" t="n">
-        <v>518.6385385727397</v>
+        <v>859.8975998488718</v>
       </c>
       <c r="D5" t="n">
-        <v>486.7691577875882</v>
+        <v>423.9878150233163</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>394.2534742220155</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1387.326301534167</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>979.0401778338202</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>292.9122834690417</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>120.3505719522666</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1516.524240083786</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1229.568731954216</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>957.542327540508</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>712.1505728739205</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.7309021880288</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715258</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953531</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102017</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890094</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743897</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743897</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743897</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743897</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743897</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109474</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1754.944899109474</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1754.944899109474</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1754.944899109474</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1350.089444520507</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>930.9469810998177</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y8" t="n">
-        <v>522.6608573994711</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.77193545851274</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>36.77193545851274</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>36.77193545851274</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>36.77193545851274</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851274</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851274</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851274</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851274</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851274</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255688</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683213</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908995</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223633</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1433.475957802088</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1155.042957055194</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>868.0874489256241</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>596.0610445119157</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>350.6692898453282</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.2496191594365</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874956</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="M11" t="n">
-        <v>3292.836108510712</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="N11" t="n">
-        <v>3292.836108510712</v>
+        <v>2312.656441940404</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5130,13 +5130,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1642.802960065584</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1642.802960065584</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
-        <v>1642.802960065584</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
         <v>1642.802960065584</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111506</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874956</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="M14" t="n">
-        <v>2561.734119295949</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N14" t="n">
-        <v>3687.465102732396</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>4667.644769302702</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4667.644769302702</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>96.77217639691919</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>421.3305013631315</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>965.4711828007306</v>
+        <v>998.0484328177142</v>
       </c>
       <c r="C16" t="n">
-        <v>792.9094712839556</v>
+        <v>825.4867213009393</v>
       </c>
       <c r="D16" t="n">
-        <v>627.0314784854784</v>
+        <v>659.6087285024621</v>
       </c>
       <c r="E16" t="n">
-        <v>457.2734747362156</v>
+        <v>489.8507247531993</v>
       </c>
       <c r="F16" t="n">
-        <v>280.5664206979718</v>
+        <v>313.1436707149555</v>
       </c>
       <c r="G16" t="n">
-        <v>114.9751457237994</v>
+        <v>147.5523957407831</v>
       </c>
       <c r="H16" t="n">
-        <v>114.9751457237994</v>
+        <v>147.5523957407831</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2189.083139415475</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1902.127631285906</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1630.101226872197</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1384.709472205609</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1157.289801519718</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146354</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940407</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510714</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302704</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5701,22 +5701,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2308.274771460366</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>2112.450585778171</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111519</v>
@@ -5759,19 +5759,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2859.155227899001</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693463</v>
+        <v>2859.155227899001</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263769</v>
+        <v>3839.334894469308</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097165</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5795,7 +5795,7 @@
         <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>965.4711828007308</v>
+        <v>784.8119928040987</v>
       </c>
       <c r="C22" t="n">
-        <v>792.9094712839558</v>
+        <v>656.767367988715</v>
       </c>
       <c r="D22" t="n">
-        <v>627.0314784854785</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="E22" t="n">
-        <v>457.2734747362157</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F22" t="n">
-        <v>280.5664206979719</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G22" t="n">
-        <v>114.9751457237996</v>
+        <v>325.2981002160654</v>
       </c>
       <c r="H22" t="n">
-        <v>114.9751457237996</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
         <v>96.73597668111519</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S22" t="n">
-        <v>2713.395586583915</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2467.51614016237</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U22" t="n">
-        <v>2189.083139415475</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V22" t="n">
-        <v>1902.127631285905</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W22" t="n">
-        <v>1630.101226872197</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.709472205609</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y22" t="n">
-        <v>1157.289801519718</v>
+        <v>976.6306115230859</v>
       </c>
     </row>
     <row r="23">
@@ -6172,16 +6172,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>3569.079287993933</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130894</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.801834709349</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,7 +7160,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7175,49 +7175,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7363,19 +7363,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303137</v>
+        <v>2177.511286811514</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759859</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7418,40 +7418,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136696</v>
@@ -7467,16 +7467,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
         <v>143.9964924545671</v>
@@ -7491,19 +7491,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.756877347711</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309359</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324586</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831959</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>267.8521152449521</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1011.560997133398</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7646,16 +7646,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L44" t="n">
-        <v>537.5155277236975</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7725,16 +7725,16 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="N45" t="n">
         <v>1107.588885023173</v>
@@ -7828,22 +7828,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173567</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X46" t="n">
         <v>1371.99516675259</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804199</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854703</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281351237</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706658</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428501</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M11" t="n">
-        <v>860.0355415814561</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8778,16 +8778,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,13 +8927,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>661.5502973433599</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>121.5486837887665</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8942,10 +8942,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949900158</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M17" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>421.9740460140715</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9419,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1133.488385918382</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>-4.259375782028067e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10823,28 +10823,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>935.0031416802852</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11373,10 +11373,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>267.5985112554906</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.38105307846863</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>229.4233680290245</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.38105307846863</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>49.73195639979787</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>69.71657238081418</v>
+        <v>37.46509486399985</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>267.5985112554906</v>
+        <v>268.01113273462</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>267.5985112554894</v>
+        <v>268.0111327346207</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>44.07191583437734</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>69.7165723808139</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>222.8531101735155</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>222.8531101735157</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
     </row>
     <row r="38">
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>140.7232059832942</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>7.907823718758692</v>
       </c>
     </row>
     <row r="44">
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>139.5921776627259</v>
+        <v>3.146865729424434</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>665626.5906367792</v>
+        <v>681177.414879479</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>665626.5906367792</v>
+        <v>685580.9939290469</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>668527.078287767</v>
+        <v>685580.9939290469</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>684510.0988232644</v>
+        <v>684510.0988232642</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>684510.0988232644</v>
+        <v>684510.0988232645</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684510.0988232642</v>
+        <v>684510.0988232645</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>684510.0988232644</v>
+        <v>684510.0988232645</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>713397.2071956354</v>
+        <v>713397.2071956353</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>713397.2071956354</v>
+        <v>713397.2071956355</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26317,7 @@
         <v>321688.3919342451</v>
       </c>
       <c r="D2" t="n">
-        <v>321688.3919342449</v>
+        <v>321688.3919342451</v>
       </c>
       <c r="E2" t="n">
         <v>303314.3387830058</v>
@@ -26326,13 +26326,13 @@
         <v>303314.3387830058</v>
       </c>
       <c r="G2" t="n">
-        <v>303314.3387830057</v>
+        <v>303314.3387830059</v>
       </c>
       <c r="H2" t="n">
-        <v>303314.3387830057</v>
+        <v>303314.3387830059</v>
       </c>
       <c r="I2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824112</v>
       </c>
       <c r="J2" t="n">
         <v>316114.5504824112</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390631</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784487</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>190396.3809770166</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>213034.7156035602</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
         <v>103931.2982770052</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814198</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="H5" t="n">
         <v>73519.34227764753</v>
@@ -26503,10 +26503,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
         <v>77718.2386057925</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98152.96289525629</v>
+        <v>-145369.3818048168</v>
       </c>
       <c r="C6" t="n">
-        <v>44038.33776445367</v>
+        <v>47619.34072525332</v>
       </c>
       <c r="D6" t="n">
-        <v>36097.59871021241</v>
+        <v>64959.88509915966</v>
       </c>
       <c r="E6" t="n">
-        <v>-97935.59552367433</v>
+        <v>-35947.935536558</v>
       </c>
       <c r="F6" t="n">
-        <v>125863.6982283531</v>
+        <v>125787.1396735562</v>
       </c>
       <c r="G6" t="n">
-        <v>125863.698228353</v>
+        <v>125787.1396735562</v>
       </c>
       <c r="H6" t="n">
-        <v>125863.698228353</v>
+        <v>125787.1396735563</v>
       </c>
       <c r="I6" t="n">
-        <v>111714.2784153164</v>
+        <v>111691.0540759337</v>
       </c>
       <c r="J6" t="n">
-        <v>19064.52870316565</v>
+        <v>-30552.0597768404</v>
       </c>
       <c r="K6" t="n">
-        <v>130078.9940481559</v>
+        <v>116241.7611409284</v>
       </c>
       <c r="L6" t="n">
-        <v>121131.3829596459</v>
+        <v>130055.7697087732</v>
       </c>
       <c r="M6" t="n">
-        <v>-56711.99256231192</v>
+        <v>-4934.17490423023</v>
       </c>
       <c r="N6" t="n">
-        <v>130078.9940481558</v>
+        <v>130055.7697087733</v>
       </c>
       <c r="O6" t="n">
-        <v>130078.9940481558</v>
+        <v>130055.7697087733</v>
       </c>
       <c r="P6" t="n">
-        <v>130078.994048156</v>
+        <v>130055.7697087732</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052155</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>64.79236478762783</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>147.2153150401801</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>85.00850797034227</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.9552660335092</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>372.7964946687786</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>108.9993815687713</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>78.67637855334087</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.34402981239282</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>86.14502017843154</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.2875256678827</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28020,16 +28020,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804199</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773354</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854703</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.81797281351237</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2128107706658</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428501</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,16 +35413,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294876</v>
       </c>
       <c r="M11" t="n">
-        <v>860.0355415814561</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>661.5502973433599</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>121.5486837887665</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35662,10 +35662,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03656536949900158</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294913</v>
       </c>
       <c r="M17" t="n">
-        <v>309.6062697457101</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>421.9740460140715</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,10 +36139,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1133.488385918382</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37543,28 +37543,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>314.2706063049995</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>935.0031416802852</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38093,10 +38093,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
